--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCB967-1E4B-4642-943D-D142A54D09D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A31A1D-7576-4AEB-A15C-7EAF475A4430}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695ED00-A9C2-475A-8753-029FA351ED70}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,7 +631,7 @@
     <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>41</v>
       </c>
@@ -637,8 +641,11 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,14 +654,15 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>6</v>
@@ -662,7 +670,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
@@ -670,27 +678,29 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,46 +708,50 @@
         <v>11</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A31A1D-7576-4AEB-A15C-7EAF475A4430}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87907D2-68DB-44FA-995F-FC9DD0CDF7FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,14 +295,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -623,7 +623,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,113 +646,114 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
@@ -760,71 +761,71 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -832,25 +833,25 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
@@ -858,43 +859,43 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>40</v>
       </c>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87907D2-68DB-44FA-995F-FC9DD0CDF7FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C549A65-2B19-4CB6-AACA-9B96F847E4A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,6 +732,7 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -739,6 +740,7 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C549A65-2B19-4CB6-AACA-9B96F847E4A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879944-64AF-4685-ABBD-89FEDD209598}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,123 +97,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>英雄洗练</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永生梦境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征掉落/金币/远征币翻倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本掉落/初次掉落翻倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英副本掉落/初次掉落/灵魂石掉落翻倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永生梦境阶梯发奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑市来袭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>英雄觉醒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄洗练</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时空漩涡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬赏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>永生梦境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征掉落/金币/远征币翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本掉落/初次掉落翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英副本掉落/初次掉落/灵魂石掉落翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>永生梦境阶梯发奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑市来袭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +624,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,16 +634,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -747,34 +748,37 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
@@ -793,18 +797,18 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -816,40 +820,41 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,58 +862,58 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A15:A26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16879944-64AF-4685-ABBD-89FEDD209598}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56319F-8A45-48D9-8503-0C8B355DE712}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>英雄觉醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统开启</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695ED00-A9C2-475A-8753-029FA351ED70}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,19 +707,17 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="2"/>
@@ -723,7 +725,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="2"/>
@@ -731,7 +733,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="2"/>
@@ -739,181 +741,189 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>17</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\pangu\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C56319F-8A45-48D9-8503-0C8B355DE712}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7D670-1F60-154F-8A3C-DEEB9B982EF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="32240" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,15 +628,15 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="C1" t="s">
         <v>40</v>
       </c>
@@ -650,7 +650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -667,7 +667,7 @@
       <c r="D3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>6</v>
@@ -675,7 +675,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>7</v>
@@ -683,7 +683,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
@@ -692,27 +692,28 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>12</v>
@@ -730,7 +731,7 @@
       <c r="D11" s="1"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>13</v>
@@ -738,7 +739,7 @@
       <c r="D12" s="1"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>14</v>
@@ -746,21 +747,21 @@
       <c r="D13" s="1"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,14 +770,14 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>18</v>
@@ -784,64 +785,66 @@
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -849,25 +852,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -875,43 +878,43 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>39</v>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7D670-1F60-154F-8A3C-DEEB9B982EF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27B458-B77C-9646-A889-F382F76E51A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="32240" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="20460" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -218,6 +217,58 @@
   </si>
   <si>
     <t>系统开启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.12-12.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.14-12.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.26</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -296,18 +347,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -628,296 +682,354 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D19" s="1">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D20" s="1">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D21" s="1">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="4">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="4">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D24" s="1">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="4">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27B458-B77C-9646-A889-F382F76E51A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23192D-7FB8-5C4A-86A6-654E66A1A8F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="20460" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="36600" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,14 +354,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,7 +682,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -707,160 +707,156 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
-        <v>12.1</v>
-      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
-        <v>12.3</v>
-      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -869,25 +865,25 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>12.6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,32 +892,32 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>12.8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -932,7 +928,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
@@ -941,7 +937,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -950,7 +946,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -959,7 +955,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -970,7 +966,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
@@ -979,7 +975,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
@@ -988,7 +984,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
@@ -997,7 +993,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1006,7 +1002,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1011,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1020,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23192D-7FB8-5C4A-86A6-654E66A1A8F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD21F36-9DAF-4B4A-81F6-796ABFA6FE1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="460" windowWidth="36600" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -853,14 +853,14 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>12.4</v>
       </c>
     </row>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD21F36-9DAF-4B4A-81F6-796ABFA6FE1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C57844-E4D7-D84A-93DE-E749E64C8DE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -860,27 +860,21 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2">
-        <v>12.4</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3">
-        <v>12.5</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2">
-        <v>12.6</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4"/>
@@ -903,16 +897,14 @@
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3">
-        <v>12.8</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
     </row>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C57844-E4D7-D84A-93DE-E749E64C8DE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB5FC98-A185-9E40-8163-215997C7E9DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -217,18 +217,6 @@
   </si>
   <si>
     <t>系统开启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.12-12.13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -347,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,6 +346,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -682,7 +673,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -707,7 +698,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -716,7 +707,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,7 +715,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +723,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,7 +731,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,28 +740,28 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -780,7 +771,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,7 +779,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -796,7 +787,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,21 +795,21 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -827,14 +818,14 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -842,182 +833,174 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="1">
-        <v>12.7</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB5FC98-A185-9E40-8163-215997C7E9DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFFD37-9150-8147-A36C-628BE551A7CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="13820" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12.14-12.17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>12.18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -257,6 +253,22 @@
   </si>
   <si>
     <t>12.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵营地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜拜大神</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695ED00-A9C2-475A-8753-029FA351ED70}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -896,120 +908,146 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
+      <c r="D43" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A16:A31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFFD37-9150-8147-A36C-628BE551A7CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7779B-9395-8A41-A97A-D6DC3F89FBD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13820" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -926,7 +926,7 @@
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D7779B-9395-8A41-A97A-D6DC3F89FBD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8272F2-FD95-1246-8185-8D002BEA0E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="460" windowWidth="30820" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
+    <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" activeTab="1" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="刀塔" sheetId="1" r:id="rId1"/>
+    <sheet name="率土" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -40,10 +42,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>运营</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>成长</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -156,42 +154,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>签到</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>导师</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>VIP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征掉落/金币/远征币翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本掉落/初次掉落翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英副本掉落/初次掉落/灵魂石掉落翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>永生梦境阶梯发奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑市来袭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>前端</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,38 +190,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12.18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>工会战</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -269,6 +203,154 @@
   </si>
   <si>
     <t>膜拜大神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人核心玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝廷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驿站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>税收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贼兵刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将卡刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验卡刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山寨刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人玩法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>互换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>征兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯田</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>练兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化战法经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级战法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘技能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +385,36 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -347,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,8 +475,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695ED00-A9C2-475A-8753-029FA351ED70}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -697,353 +824,278 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A36:A43"/>
+  <mergeCells count="4">
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A2:A9"/>
@@ -1053,4 +1105,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12E769B-E0CC-7D48-9C28-34D4E62AD7A9}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF951B-AD13-9E46-AE14-291F10C3EA83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1CD0B-1CB8-2F49-B52D-CD5B822E55D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>帮会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +276,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12E769B-E0CC-7D48-9C28-34D4E62AD7A9}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -621,7 +628,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -636,8 +643,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -651,8 +658,8 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
@@ -664,8 +671,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -679,8 +686,8 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
@@ -692,8 +699,8 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -705,8 +712,8 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -718,8 +725,8 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -731,8 +738,8 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
@@ -744,8 +751,8 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -757,8 +764,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
@@ -770,8 +777,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -783,8 +790,8 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -798,8 +805,8 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
@@ -811,8 +818,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
@@ -824,7 +831,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,7 +844,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -850,8 +857,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -865,8 +872,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -878,8 +885,8 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
@@ -891,8 +898,8 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
@@ -904,7 +911,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -917,7 +924,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -928,7 +935,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -939,7 +946,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -950,7 +957,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
@@ -961,7 +968,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
@@ -972,7 +979,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -983,7 +990,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
@@ -994,7 +1001,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1007,29 +1014,33 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -1039,15 +1050,26 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A31:A35"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1CD0B-1CB8-2F49-B52D-CD5B822E55D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64A515F-50D8-6E4F-83D4-0845E18BC105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,7 +1046,9 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64A515F-50D8-6E4F-83D4-0845E18BC105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96BDDD-56D5-954E-B972-81A3A7EEF112}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1059,7 +1059,9 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96BDDD-56D5-954E-B972-81A3A7EEF112}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166D34E-B42D-C349-B925-B304A9AFA6B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驿站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,22 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屯田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +189,10 @@
   </si>
   <si>
     <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -598,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12E769B-E0CC-7D48-9C28-34D4E62AD7A9}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -615,10 +602,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -628,294 +615,314 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -924,9 +931,9 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -935,9 +942,9 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -946,9 +953,9 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -957,9 +964,9 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -968,9 +975,11 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -979,101 +988,65 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A23:A30"/>
+  <mergeCells count="6">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能.xlsx
+++ b/功能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiangxi/Documents/workplace/pangu/pangu-desigin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6166D34E-B42D-C349-B925-B304A9AFA6B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CCB23A-EC5C-2543-AD08-A4D170DF90F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="460" windowWidth="27540" windowHeight="26760" xr2:uid="{02512104-3A84-4462-9AE5-411811C33BB1}"/>
   </bookViews>
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
-  <si>
-    <t>竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>聊天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +189,14 @@
   </si>
   <si>
     <t>推图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +264,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12E769B-E0CC-7D48-9C28-34D4E62AD7A9}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -602,305 +612,307 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>17</v>
+      <c r="A20" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -909,9 +921,9 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -920,9 +932,9 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -931,9 +943,9 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -942,9 +954,9 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -953,9 +965,9 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -964,9 +976,9 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -975,78 +987,83 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
-        <v>18</v>
+      <c r="A28" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="4" t="s">
-        <v>36</v>
+      <c r="E31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A28:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
